--- a/biology/Médecine/À_hauteur_d'homme_(film,_1981)/À_hauteur_d'homme_(film,_1981).xlsx
+++ b/biology/Médecine/À_hauteur_d'homme_(film,_1981)/À_hauteur_d'homme_(film,_1981).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%80_hauteur_d%27homme_(film,_1981)</t>
+          <t>À_hauteur_d'homme_(film,_1981)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">À hauteur d'homme est un film belge de long métrage réalisé par Jean-Marie Piquint en 1981.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%80_hauteur_d%27homme_(film,_1981)</t>
+          <t>À_hauteur_d'homme_(film,_1981)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À hauteur d'homme est inspiré de la vie du docteur Louis Seutin, médecin et chirurgien belge du XIXe siècle qui s'initia à son art au milieu des combats des guerres du Premier Empire français. Rentré en Belgique, il se consacra au progrès de la médecine, notamment dans la réorganisation des hôpitaux et dans les domaines de la lutte contre la fièvre puerpérale, du développement de la chirurgie osseuse et de la guérison des fractures. Sa méthode amovo-inamovible de réduction des fractures échappe aux défauts des méthodes qui l'ont précédée en conjuguant les avantages des méthodes légères et des méthodes lourdes sans leurs inconvénients.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%80_hauteur_d%27homme_(film,_1981)</t>
+          <t>À_hauteur_d'homme_(film,_1981)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisation : Jean-Marie Piquint
 Musique : José Berghmans
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%80_hauteur_d%27homme_(film,_1981)</t>
+          <t>À_hauteur_d'homme_(film,_1981)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jacques Lippe
 Francis Houtteman
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%80_hauteur_d%27homme_(film,_1981)</t>
+          <t>À_hauteur_d'homme_(film,_1981)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Le film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce long métrage de fiction historique, avec Jacques Lippe, Francis Houtteman et Michel Carnoy comme acteurs principaux et Jean Musin pour la voix "off", est réalisé dans des décors d'époque et se signale par une présentation fidèle de la méthode de Seutin, mais aussi par des scènes de la chirurgie de guerre au milieu des combats reconstitués avec une nombreuse figuration militaire et par la reconstitution réaliste d'opérations chirurgicales exécutées à l'ancienne avec des instruments du XIXe siècle.
 </t>
